--- a/SMTR202212006611_010_2022-12-16/data/output/comparacao_pre_pos_reprocessamento_010_formatada.xlsx
+++ b/SMTR202212006611_010_2022-12-16/data/output/comparacao_pre_pos_reprocessamento_010_formatada.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SMTR\Repositórios - SMTR\subsidio-recursos\SMTR202212006611_010_2022-12-16\data\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2029BA1-E077-48F5-BE5B-2E2CAAA0187E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D18D2-B99B-4FB9-A55B-D3A8C6BAEE5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="reprocessamento_010" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -22,28 +22,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Quantidade de viagens - pré-reprocessamento</t>
-  </si>
-  <si>
-    <t>Quantidade de viagens - pós-reprocessamento</t>
-  </si>
-  <si>
-    <t>Distancia total - pré-reprocessamento (km)</t>
-  </si>
-  <si>
-    <t>Distancia total - pos-reprocessamento (km)</t>
-  </si>
-  <si>
-    <t>Valor do subsídio pré-reprocessamento (R$)</t>
-  </si>
-  <si>
-    <t>Valor do subsídio pós-reprocessamento (R$)</t>
-  </si>
-  <si>
-    <t>Indicador</t>
-  </si>
-  <si>
-    <t>Valor</t>
+    <t>Pré-reprocessamento</t>
+  </si>
+  <si>
+    <t>Pós-reprocessamento</t>
+  </si>
+  <si>
+    <t>Quantidade de viagens</t>
+  </si>
+  <si>
+    <t>Distância Total (km)</t>
+  </si>
+  <si>
+    <t>Valor do subsídio (R$)</t>
+  </si>
+  <si>
+    <t>Servico - 010</t>
+  </si>
+  <si>
+    <t>Período 01/06/2022 até 31/05/2023</t>
+  </si>
+  <si>
+    <t>Métricas</t>
   </si>
 </sst>
 </file>
@@ -53,7 +53,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,9 +65,16 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,7 +91,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,16 +124,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -431,76 +444,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>66790.169999999984</v>
+      </c>
+      <c r="D6" s="4">
+        <v>81485.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
-        <v>66790.169999999984</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>81485.2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="C7" s="4">
         <v>6414</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="D7" s="4">
         <v>15670</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="4">
         <v>100756.68</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>136049.7529799999</v>
-      </c>
+      <c r="D8" s="4">
+        <v>169626.86558999991</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>